--- a/data/outputs/OR_elsevier/24.xlsx
+++ b/data/outputs/OR_elsevier/24.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS128"/>
+  <dimension ref="A1:BU128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -927,6 +937,12 @@
           <t>2-s2.0-84947488892</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1158,12 @@
           <t>2-s2.0-84947487624</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1357,6 +1379,12 @@
           <t>2-s2.0-84947486314</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1574,6 +1602,12 @@
           <t>2-s2.0-84947491883</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1789,6 +1823,12 @@
           <t>2-s2.0-84947492192</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2014,6 +2054,12 @@
           <t>2-s2.0-84947489504</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2231,6 +2277,12 @@
           <t>2-s2.0-84947486039</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2446,6 +2498,12 @@
           <t>2-s2.0-84947490108</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2665,6 +2723,12 @@
           <t>2-s2.0-84947487173</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2880,6 +2944,12 @@
           <t>2-s2.0-84947493456</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3107,6 +3177,12 @@
           <t>2-s2.0-84947495020</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3334,6 +3410,12 @@
           <t>2-s2.0-84943231036</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3561,6 +3643,12 @@
           <t>2-s2.0-84943351626</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3780,6 +3868,12 @@
           <t>2-s2.0-84943361885</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3995,6 +4089,12 @@
           <t>2-s2.0-84943352062</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4222,6 +4322,12 @@
           <t>2-s2.0-84943360970</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4449,6 +4555,12 @@
           <t>2-s2.0-84943359525</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4676,6 +4788,12 @@
           <t>2-s2.0-84943349589</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4903,6 +5021,12 @@
           <t>2-s2.0-84943354562</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5120,6 +5244,12 @@
           <t>2-s2.0-84943357591</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5339,6 +5469,12 @@
           <t>2-s2.0-84943354168</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5560,6 +5696,12 @@
           <t>2-s2.0-84941995044</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5779,6 +5921,12 @@
           <t>2-s2.0-84941994277</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5994,6 +6142,12 @@
           <t>2-s2.0-84941993478</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6217,6 +6371,12 @@
           <t>2-s2.0-84941997098</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6436,6 +6596,12 @@
           <t>2-s2.0-84941993288</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6659,6 +6825,12 @@
           <t>2-s2.0-84941995313</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6873,6 +7045,12 @@
         <is>
           <t>2-s2.0-84941995781</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -7081,6 +7259,12 @@
           <t>2-s2.0-84941996492</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7296,6 +7480,12 @@
           <t>2-s2.0-84941996483</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7506,6 +7696,12 @@
         <is>
           <t>2-s2.0-84941995880</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -7714,6 +7910,12 @@
           <t>2-s2.0-84940438068</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7937,6 +8139,12 @@
           <t>2-s2.0-84940440355</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8160,6 +8368,12 @@
           <t>2-s2.0-84940437663</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8375,6 +8589,12 @@
           <t>2-s2.0-84940439075</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8592,6 +8812,12 @@
           <t>2-s2.0-84940440693</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8806,6 +9032,12 @@
         <is>
           <t>2-s2.0-84940438263</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -9014,6 +9246,12 @@
           <t>2-s2.0-84940435245</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9233,6 +9471,12 @@
           <t>2-s2.0-84940439779</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9448,6 +9692,12 @@
           <t>2-s2.0-84940438477</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9666,6 +9916,12 @@
         <is>
           <t>2-s2.0-84940438421</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -9870,6 +10126,12 @@
           <t>2-s2.0-84937912504</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10093,6 +10355,12 @@
           <t>2-s2.0-84937966061</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10320,6 +10588,12 @@
           <t>2-s2.0-84937967084</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10539,6 +10813,12 @@
           <t>2-s2.0-84937969548</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10758,6 +11038,12 @@
           <t>2-s2.0-84937971652</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10977,6 +11263,12 @@
           <t>2-s2.0-84937975812</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11196,6 +11488,12 @@
           <t>2-s2.0-84937969308</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11418,6 +11716,12 @@
         <is>
           <t>2-s2.0-84937977579</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -11626,6 +11930,12 @@
           <t>2-s2.0-84937974971</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11849,6 +12159,12 @@
           <t>2-s2.0-84937972465</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12068,6 +12384,12 @@
           <t>2-s2.0-84937970734</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12287,6 +12609,12 @@
           <t>2-s2.0-84937974170</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12514,6 +12842,12 @@
           <t>2-s2.0-84937974599</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12739,6 +13073,12 @@
           <t>2-s2.0-84937973588</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12966,6 +13306,12 @@
           <t>2-s2.0-84937976740</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13193,6 +13539,12 @@
           <t>2-s2.0-84937972855</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13411,6 +13763,12 @@
         <is>
           <t>2-s2.0-85027926435</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -13619,6 +13977,12 @@
           <t>2-s2.0-84930476809</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13836,6 +14200,12 @@
           <t>2-s2.0-84930484464</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14050,6 +14420,12 @@
         <is>
           <t>2-s2.0-84930485234</t>
         </is>
+      </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -14258,6 +14634,12 @@
           <t>2-s2.0-84930473025</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14481,6 +14863,12 @@
           <t>2-s2.0-84930641267</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14708,6 +15096,12 @@
           <t>2-s2.0-84930477172</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14923,6 +15317,12 @@
           <t>2-s2.0-84930478447</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15145,6 +15545,12 @@
         <is>
           <t>2-s2.0-84930651933</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -15355,6 +15761,12 @@
           <t>2-s2.0-84930473703</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15577,6 +15989,12 @@
         <is>
           <t>2-s2.0-84929338840</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -15785,6 +16203,12 @@
           <t>2-s2.0-84939984484</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15992,6 +16416,12 @@
           <t>2-s2.0-84929522181</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16206,6 +16636,12 @@
         <is>
           <t>2-s2.0-85027945100</t>
         </is>
+      </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -16414,6 +16850,12 @@
           <t>2-s2.0-85027921134</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16629,6 +17071,12 @@
           <t>2-s2.0-84929339095</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16843,6 +17291,12 @@
         <is>
           <t>2-s2.0-84939985217</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -17051,6 +17505,12 @@
           <t>2-s2.0-84939981064</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17274,6 +17734,12 @@
           <t>2-s2.0-84943015761</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17489,6 +17955,12 @@
           <t>2-s2.0-85028201215</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17711,6 +18183,12 @@
         <is>
           <t>2-s2.0-84938255942</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -17919,6 +18397,12 @@
           <t>2-s2.0-84938200196</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18133,6 +18617,12 @@
         <is>
           <t>2-s2.0-84938203754</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -18341,6 +18831,12 @@
           <t>2-s2.0-84938210166</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18556,6 +19052,12 @@
           <t>2-s2.0-85027922489</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18767,6 +19269,12 @@
           <t>2-s2.0-84938215507</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18982,6 +19490,12 @@
           <t>2-s2.0-84978997519</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19205,6 +19719,12 @@
           <t>2-s2.0-84938200114</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19430,6 +19950,12 @@
           <t>2-s2.0-84930867714</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19649,6 +20175,12 @@
           <t>2-s2.0-84939414788</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19871,6 +20403,12 @@
         <is>
           <t>2-s2.0-84939415561</t>
         </is>
+      </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -20081,6 +20619,12 @@
           <t>2-s2.0-84929517486</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20304,6 +20848,12 @@
           <t>2-s2.0-84939415401</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20519,6 +21069,12 @@
           <t>2-s2.0-84938088003</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20734,6 +21290,12 @@
           <t>2-s2.0-84939414674</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20957,6 +21519,12 @@
           <t>2-s2.0-84939415217</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21172,6 +21740,12 @@
           <t>2-s2.0-84939415114</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21390,6 +21964,12 @@
         <is>
           <t>2-s2.0-84939414793</t>
         </is>
+      </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -21598,6 +22178,12 @@
           <t>2-s2.0-84938118161</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21813,6 +22399,12 @@
           <t>2-s2.0-84923215868</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22032,6 +22624,12 @@
           <t>2-s2.0-84923214167</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22246,6 +22844,12 @@
         <is>
           <t>2-s2.0-84923215468</t>
         </is>
+      </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -22450,6 +23054,12 @@
           <t>2-s2.0-84922960654</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22673,6 +23283,12 @@
           <t>2-s2.0-84910605223</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22896,6 +23512,12 @@
           <t>2-s2.0-84923215683</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23119,6 +23741,12 @@
           <t>2-s2.0-84923215936</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23334,6 +23962,12 @@
           <t>2-s2.0-84923214238</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23557,6 +24191,12 @@
           <t>2-s2.0-84923214193</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23772,6 +24412,12 @@
           <t>2-s2.0-84922344388</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23987,6 +24633,12 @@
           <t>2-s2.0-84922835635</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24206,6 +24858,12 @@
           <t>2-s2.0-84922835100</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24425,6 +25083,12 @@
           <t>2-s2.0-84922834598</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24640,6 +25304,12 @@
           <t>2-s2.0-84922834588</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24855,6 +25525,12 @@
           <t>2-s2.0-84922836342</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25078,6 +25754,12 @@
           <t>2-s2.0-84922836329</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25297,6 +25979,12 @@
           <t>2-s2.0-84922835234</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25512,6 +26200,12 @@
           <t>2-s2.0-84922834595</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25727,6 +26421,12 @@
           <t>2-s2.0-84922835829</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25950,6 +26650,12 @@
           <t>2-s2.0-84922835660</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26165,6 +26871,12 @@
           <t>2-s2.0-84922343474</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26380,6 +27092,12 @@
           <t>2-s2.0-84943588662</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26603,6 +27321,12 @@
           <t>2-s2.0-84943588853</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26828,6 +27552,12 @@
           <t>2-s2.0-84943588907</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27047,6 +27777,12 @@
           <t>2-s2.0-84920257352</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27262,6 +27998,12 @@
           <t>2-s2.0-84920254993</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27485,6 +28227,12 @@
           <t>2-s2.0-84943589088</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27700,6 +28448,12 @@
           <t>2-s2.0-84920253386</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27925,6 +28679,12 @@
           <t>2-s2.0-84920258671</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28140,6 +28900,12 @@
           <t>2-s2.0-84943588953</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28363,6 +29129,12 @@
           <t>2-s2.0-84920249607</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
